--- a/data/ikm_provinsi.xlsx
+++ b/data/ikm_provinsi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bimon\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ikm\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD5926E-C3A3-4DC3-9C0B-715679CA5DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694CA7B4-1062-48AC-BE3D-36FA0BE4BE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>name</t>
   </si>
@@ -130,97 +130,103 @@
     <t>value</t>
   </si>
   <si>
-    <t>4.36</t>
-  </si>
-  <si>
-    <t>3.21</t>
-  </si>
-  <si>
-    <t>2.37</t>
-  </si>
-  <si>
-    <t>2.7</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>4.24</t>
-  </si>
-  <si>
-    <t>3.55</t>
-  </si>
-  <si>
-    <t>1.67</t>
-  </si>
-  <si>
-    <t>1.44</t>
-  </si>
-  <si>
-    <t>1.08</t>
-  </si>
-  <si>
-    <t>3.32</t>
-  </si>
-  <si>
-    <t>2.72</t>
-  </si>
-  <si>
-    <t>1.38</t>
-  </si>
-  <si>
-    <t>2.92</t>
-  </si>
-  <si>
-    <t>2.45</t>
-  </si>
-  <si>
-    <t>0.64</t>
-  </si>
-  <si>
-    <t>3.46</t>
-  </si>
-  <si>
-    <t>14.7</t>
-  </si>
-  <si>
-    <t>3.15</t>
-  </si>
-  <si>
-    <t>2.11</t>
-  </si>
-  <si>
-    <t>1.65</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>2.75</t>
-  </si>
-  <si>
-    <t>7.26</t>
-  </si>
-  <si>
-    <t>4.79</t>
-  </si>
-  <si>
-    <t>6.08</t>
-  </si>
-  <si>
-    <t>6.36</t>
-  </si>
-  <si>
-    <t>10.13</t>
-  </si>
-  <si>
-    <t>4.45</t>
-  </si>
-  <si>
-    <t>12.98</t>
-  </si>
-  <si>
-    <t>18.02</t>
+    <t>11.32</t>
+  </si>
+  <si>
+    <t>10.63</t>
+  </si>
+  <si>
+    <t>12.74</t>
+  </si>
+  <si>
+    <t>12.84</t>
+  </si>
+  <si>
+    <t>12.78</t>
+  </si>
+  <si>
+    <t>13.41</t>
+  </si>
+  <si>
+    <t>11.19</t>
+  </si>
+  <si>
+    <t>12.11</t>
+  </si>
+  <si>
+    <t>7.89</t>
+  </si>
+  <si>
+    <t>5.24</t>
+  </si>
+  <si>
+    <t>12.4</t>
+  </si>
+  <si>
+    <t>10.34</t>
+  </si>
+  <si>
+    <t>3.42</t>
+  </si>
+  <si>
+    <t>10.07</t>
+  </si>
+  <si>
+    <t>10.60</t>
+  </si>
+  <si>
+    <t>4.14</t>
+  </si>
+  <si>
+    <t>8.67</t>
+  </si>
+  <si>
+    <t>41.44</t>
+  </si>
+  <si>
+    <t>19.15</t>
+  </si>
+  <si>
+    <t>16.66</t>
+  </si>
+  <si>
+    <t>12.97</t>
+  </si>
+  <si>
+    <t>8.26</t>
+  </si>
+  <si>
+    <t>12.75</t>
+  </si>
+  <si>
+    <t>12.30</t>
+  </si>
+  <si>
+    <t>22.73</t>
+  </si>
+  <si>
+    <t>15.32</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>18.12</t>
+  </si>
+  <si>
+    <t>23.23</t>
+  </si>
+  <si>
+    <t>28.13</t>
+  </si>
+  <si>
+    <t>30.36</t>
+  </si>
+  <si>
+    <t>27.99</t>
+  </si>
+  <si>
+    <t>42.62</t>
   </si>
 </sst>
 </file>
@@ -586,7 +592,7 @@
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,7 +661,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -663,7 +669,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -671,7 +677,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -759,7 +765,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -767,7 +773,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -775,7 +781,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -783,7 +789,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -791,7 +797,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -799,7 +805,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -807,7 +813,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -815,7 +821,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -823,7 +829,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -831,7 +837,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -839,7 +845,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -847,7 +853,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -855,7 +861,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -863,7 +869,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -871,7 +877,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
